--- a/FinalSprintBacklog.xlsx
+++ b/FinalSprintBacklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/severinoguzmanf@moravian.edu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/severinoguzmanf@moravian.edu/CSCI_234/ClonedRepositoryProject03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7DAAE2-B293-4648-8AE1-5CAD56125FD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE48753-E04A-E24C-A19C-71B6946EB17C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26320" windowHeight="16380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="56">
   <si>
     <t>User Story #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task </t>
   </si>
   <si>
     <t>User Story #2</t>
@@ -190,6 +187,24 @@
   </si>
   <si>
     <t>Change dimensions of the  gui</t>
+  </si>
+  <si>
+    <t>Resizable Map</t>
+  </si>
+  <si>
+    <t>Strategy Design Pattern (Routes)</t>
+  </si>
+  <si>
+    <t>Foor order</t>
+  </si>
+  <si>
+    <t>Cost Effetiveness</t>
+  </si>
+  <si>
+    <t>Small User Interface</t>
+  </si>
+  <si>
+    <t>Francis &amp; Jorge</t>
   </si>
 </sst>
 </file>
@@ -460,30 +475,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$F$36:$Q$36</c:f>
+              <c:f>'Agile Sprint Backlog'!$F$39:$Q$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>34.700000000000003</c:v>
+                  <c:v>43.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.05</c:v>
+                  <c:v>7.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5</c:v>
+                  <c:v>2.9999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2500000000000018</c:v>
+                  <c:v>9.7500000000000018</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1500000000000001</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
@@ -492,10 +507,10 @@
                   <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3000000000000003</c:v>
+                  <c:v>3.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2</c:v>
+                  <c:v>5.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.3999999999999995</c:v>
@@ -980,7 +995,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P27" sqref="P27"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1003,7 +1018,7 @@
   <sheetData>
     <row r="1" spans="2:28" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1034,52 +1049,52 @@
     </row>
     <row r="2" spans="2:28" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -1124,16 +1139,16 @@
     </row>
     <row r="4" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="9">
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="9">
         <v>0.5</v>
@@ -1184,16 +1199,16 @@
     </row>
     <row r="5" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="9">
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="9">
         <v>2</v>
@@ -1244,16 +1259,16 @@
     </row>
     <row r="6" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="9">
         <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="F6" s="9">
         <v>1</v>
@@ -1304,16 +1319,16 @@
     </row>
     <row r="7" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="9">
         <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="9">
         <v>4</v>
@@ -1364,16 +1379,16 @@
     </row>
     <row r="8" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="9">
         <v>2</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="9">
         <v>0.5</v>
@@ -1424,7 +1439,7 @@
     </row>
     <row r="9" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -1454,16 +1469,16 @@
     </row>
     <row r="10" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="9">
         <v>3</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="9">
         <v>0.5</v>
@@ -1514,16 +1529,16 @@
     </row>
     <row r="11" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="9">
         <v>2</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="9">
         <v>0.5</v>
@@ -1574,16 +1589,16 @@
     </row>
     <row r="12" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="9">
         <v>5</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="9">
         <v>2</v>
@@ -1634,16 +1649,16 @@
     </row>
     <row r="13" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="9">
         <v>9</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="9">
         <v>4.5</v>
@@ -1694,16 +1709,16 @@
     </row>
     <row r="14" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="9">
         <v>3</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="9">
         <v>3</v>
@@ -1754,16 +1769,16 @@
     </row>
     <row r="15" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="9">
         <v>3</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="9">
         <v>3</v>
@@ -1814,7 +1829,7 @@
     </row>
     <row r="16" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
@@ -1844,22 +1859,22 @@
     </row>
     <row r="17" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C17" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="F17" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H17" s="9">
         <v>0</v>
@@ -1880,16 +1895,16 @@
         <v>0</v>
       </c>
       <c r="N17" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -1904,22 +1919,22 @@
     </row>
     <row r="18" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C18" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="9">
-        <v>0.45</v>
+        <v>2</v>
       </c>
       <c r="G18" s="9">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="H18" s="9">
         <v>0</v>
@@ -1928,16 +1943,16 @@
         <v>0</v>
       </c>
       <c r="J18" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="9">
         <v>0</v>
       </c>
       <c r="L18" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="9">
         <v>0</v>
@@ -1964,28 +1979,28 @@
     </row>
     <row r="19" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C19" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="9">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G19" s="9">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H19" s="9">
         <v>0</v>
       </c>
       <c r="I19" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="9">
         <v>0</v>
@@ -1994,19 +2009,19 @@
         <v>0</v>
       </c>
       <c r="L19" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M19" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N19" s="9">
         <v>0</v>
       </c>
       <c r="O19" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P19" s="9">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Q19" s="9">
         <v>0</v>
@@ -2024,22 +2039,22 @@
     </row>
     <row r="20" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C20" s="9">
         <v>1</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="9">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G20" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H20" s="9">
         <v>0</v>
@@ -2048,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K20" s="9">
         <v>0</v>
@@ -2066,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q20" s="9">
         <v>0</v>
@@ -2084,19 +2099,19 @@
     </row>
     <row r="21" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C21" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="F21" s="9">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -2114,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M21" s="9">
         <v>0</v>
@@ -2123,13 +2138,13 @@
         <v>0</v>
       </c>
       <c r="O21" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P21" s="9">
         <v>0</v>
       </c>
       <c r="Q21" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -2144,40 +2159,40 @@
     </row>
     <row r="22" spans="2:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C22" s="9">
+        <v>5</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="9">
         <v>3</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0.45</v>
-      </c>
       <c r="G22" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" s="9">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I22" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J22" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M22" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="9">
         <v>0</v>
@@ -2203,24 +2218,54 @@
       <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
@@ -2233,24 +2278,24 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
+      <c r="B24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -2264,23 +2309,53 @@
     </row>
     <row r="25" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="9">
+        <v>3</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="9">
         <v>1</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0.3</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
@@ -2294,23 +2369,53 @@
     </row>
     <row r="26" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
@@ -2324,23 +2429,53 @@
     </row>
     <row r="27" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="C27" s="9">
+        <v>8</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="P27" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
@@ -2353,24 +2488,54 @@
       <c r="AB27" s="4"/>
     </row>
     <row r="28" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
+      <c r="P28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0</v>
+      </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
@@ -2384,52 +2549,52 @@
     </row>
     <row r="29" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C29" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="9">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="G29" s="9">
         <v>0</v>
       </c>
       <c r="H29" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I29" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J29" s="9">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K29" s="9">
         <v>0</v>
       </c>
       <c r="L29" s="9">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+      <c r="P29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
         <v>0.1</v>
-      </c>
-      <c r="N29" s="9">
-        <v>0</v>
-      </c>
-      <c r="O29" s="9">
-        <v>0</v>
-      </c>
-      <c r="P29" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="9">
-        <v>0</v>
       </c>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -2442,42 +2607,42 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:28" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C30" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="9">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="G30" s="9">
         <v>0</v>
       </c>
       <c r="H30" s="9">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I30" s="9">
         <v>0</v>
       </c>
       <c r="J30" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K30" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L30" s="9">
         <v>0</v>
       </c>
       <c r="M30" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N30" s="9">
         <v>0</v>
@@ -2503,54 +2668,24 @@
       <c r="AB30" s="4"/>
     </row>
     <row r="31" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="I31" s="9">
-        <v>0</v>
-      </c>
-      <c r="J31" s="9">
-        <v>0</v>
-      </c>
-      <c r="K31" s="9">
-        <v>0</v>
-      </c>
-      <c r="L31" s="9">
-        <v>0</v>
-      </c>
-      <c r="M31" s="9">
-        <v>0</v>
-      </c>
-      <c r="N31" s="9">
-        <v>0</v>
-      </c>
-      <c r="O31" s="9">
-        <v>0</v>
-      </c>
-      <c r="P31" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="9">
-        <v>0</v>
-      </c>
+      <c r="B31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
@@ -2562,42 +2697,42 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C32" s="9">
         <v>7</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" s="9">
         <v>2</v>
       </c>
       <c r="G32" s="9">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H32" s="9">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I32" s="9">
         <v>0.3</v>
       </c>
       <c r="J32" s="9">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="K32" s="9">
         <v>0</v>
       </c>
       <c r="L32" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="M32" s="9">
         <v>0.1</v>
-      </c>
-      <c r="M32" s="9">
-        <v>0</v>
       </c>
       <c r="N32" s="9">
         <v>0</v>
@@ -2622,21 +2757,21 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C33" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F33" s="9">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="G33" s="9">
         <v>0</v>
@@ -2645,13 +2780,13 @@
         <v>0.3</v>
       </c>
       <c r="I33" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J33" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K33" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L33" s="9">
         <v>0</v>
@@ -2682,21 +2817,21 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F34" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G34" s="9">
         <v>0</v>
@@ -2708,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K34" s="9">
         <v>0</v>
@@ -2742,39 +2877,39 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="2:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="9" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C35" s="9">
+        <v>7</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="9">
         <v>2</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="9">
-        <v>1</v>
-      </c>
       <c r="G35" s="9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H35" s="9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I35" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J35" s="9">
         <v>0.3</v>
       </c>
       <c r="K35" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L35" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M35" s="9">
         <v>0</v>
@@ -2802,60 +2937,54 @@
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
     </row>
-    <row r="36" spans="2:28" ht="14" x14ac:dyDescent="0.15">
-      <c r="B36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5">
-        <f>SUM(F3:F35)</f>
-        <v>34.700000000000003</v>
-      </c>
-      <c r="G36" s="5">
-        <f>SUM(G4:G35)</f>
-        <v>3.05</v>
-      </c>
-      <c r="H36" s="5">
-        <f>SUM(H3:H35)</f>
-        <v>3.899999999999999</v>
-      </c>
-      <c r="I36" s="5">
-        <f>SUM(I3:I35)</f>
-        <v>2.5</v>
-      </c>
-      <c r="J36" s="5">
-        <f>SUM(J3:J35)</f>
-        <v>9.2500000000000018</v>
-      </c>
-      <c r="K36" s="5">
-        <f>SUM(K3:K35)</f>
-        <v>3.3</v>
-      </c>
-      <c r="L36" s="5">
-        <f>SUM(L4:L35)</f>
-        <v>1.1500000000000001</v>
-      </c>
-      <c r="M36" s="5">
-        <f>SUM(M3:M35)</f>
-        <v>4</v>
-      </c>
-      <c r="N36" s="5">
-        <f>SUM(N3:N35)</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O36" s="5">
-        <f>SUM(O3:O35)</f>
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="P36" s="5">
-        <f>SUM(P3:P35)</f>
-        <v>3.2</v>
-      </c>
-      <c r="Q36" s="5">
-        <f>SUM(Q3:Q35)</f>
-        <v>4.3999999999999995</v>
+    <row r="36" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="9">
+        <v>3</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="9">
+        <v>3</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>0</v>
       </c>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
@@ -2868,23 +2997,55 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B37" s="4"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
+    <row r="37" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="9">
+        <v>5</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>0</v>
+      </c>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
@@ -2897,23 +3058,55 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B38" s="4"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
+    <row r="38" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="9">
+        <v>2</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>0</v>
+      </c>
+      <c r="N38" s="9">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9">
+        <v>0</v>
+      </c>
+      <c r="P38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>0</v>
+      </c>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
@@ -2926,23 +3119,61 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B39" s="4"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
+    <row r="39" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5">
+        <f>SUM(F3:F38)</f>
+        <v>43.2</v>
+      </c>
+      <c r="G39" s="5">
+        <f>SUM(G4:G38)</f>
+        <v>7.0500000000000007</v>
+      </c>
+      <c r="H39" s="5">
+        <f>SUM(H3:H38)</f>
+        <v>3.899999999999999</v>
+      </c>
+      <c r="I39" s="5">
+        <f>SUM(I3:I38)</f>
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="J39" s="5">
+        <f>SUM(J3:J38)</f>
+        <v>9.7500000000000018</v>
+      </c>
+      <c r="K39" s="5">
+        <f>SUM(K3:K38)</f>
+        <v>3.3</v>
+      </c>
+      <c r="L39" s="5">
+        <f>SUM(L4:L38)</f>
+        <v>2.15</v>
+      </c>
+      <c r="M39" s="5">
+        <f>SUM(M3:M38)</f>
+        <v>4</v>
+      </c>
+      <c r="N39" s="5">
+        <f>SUM(N3:N38)</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O39" s="5">
+        <f>SUM(O3:O38)</f>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="P39" s="5">
+        <f>SUM(P3:P38)</f>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="Q39" s="5">
+        <f>SUM(Q3:Q38)</f>
+        <v>4.3999999999999995</v>
+      </c>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
